--- a/src/main/resources/com/blazartech/MultiDroolsDemo/comp/process/drools/DetermineCompensationRate.drl.xlsx
+++ b/src/main/resources/com/blazartech/MultiDroolsDemo/comp/process/drools/DetermineCompensationRate.drl.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aar1069/NetBeansProjects/MultiDroolsDemo/src/main/resources/com/blazartech/MultiDroolsDemo/comp/process/drools/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86172284-928B-5242-8B00-5E63A10120A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="26060" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,110 +22,115 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
-    <t>RuleSet</t>
-  </si>
-  <si>
-    <t>com.blazartech.MultiDroolsDemo.comp.process.drools</t>
-  </si>
-  <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>com.blazartech.MultiDroolsDemo.comp.data.CompensationRecord, com.blazartech.MultiDroolsDemo.comp.data.EventAllocation, com.blazartech.MultiDroolsDemo.comp.data.Product, com.blazartech.MultiDroolsDemo.comp.data.CompensationProgram, com.blazartech.MultiDroolsDemo.comp.data.ThresholdType</t>
-  </si>
-  <si>
-    <t>Functions</t>
-  </si>
-  <si>
-    <t>function boolean isNull(Object o) { return o == null; }</t>
-  </si>
-  <si>
-    <t>RuleTable Determine Compensation Rate</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>CONDITION</t>
-  </si>
-  <si>
-    <t>ACTION</t>
-  </si>
-  <si>
-    <t>$compensationRecord: CompensationRecord()</t>
-  </si>
-  <si>
-    <t>$compensationRecord.compensationRate &lt; $param</t>
-  </si>
-  <si>
-    <t>$compensationRecord.eventAllocation.compensableEvent.product in ($param)</t>
-  </si>
-  <si>
-    <t>$compensationRecord.eventAllocation.program in ($param)</t>
-  </si>
-  <si>
-    <t>$compensationRecord.thresholdType in ($param)</t>
-  </si>
-  <si>
-    <t>$compensationRecord.setCompensationRate($param);  update($compensationRecord);</t>
-  </si>
-  <si>
-    <t>rate not set</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Program</t>
-  </si>
-  <si>
-    <t>ThresholdType</t>
-  </si>
-  <si>
-    <t>Rate Table</t>
-  </si>
-  <si>
-    <t>Whole life FYC</t>
-  </si>
-  <si>
-    <t>Product.WholeLife</t>
-  </si>
-  <si>
-    <t>CompensationProgram.FYC</t>
-  </si>
-  <si>
-    <t>ThresholdType.Below</t>
-  </si>
-  <si>
-    <t>Whole life renewal</t>
-  </si>
-  <si>
-    <t>CompensationProgram.RenewalCommission</t>
-  </si>
-  <si>
-    <t>Annuity FYC below</t>
-  </si>
-  <si>
-    <t>Product.VariableAnnuity</t>
-  </si>
-  <si>
-    <t>Annuity FYC above</t>
-  </si>
-  <si>
-    <t>ThresholdType.Above</t>
-  </si>
-  <si>
-    <t>Annuity renewal below</t>
-  </si>
-  <si>
-    <t>Annuity renewal above</t>
+    <t xml:space="preserve">RuleSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.blazartech.MultiDroolsDemo.comp.process.drools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.blazartech.MultiDroolsDemo.comp.data.CompensationRecord, com.blazartech.MultiDroolsDemo.comp.data.EventAllocation, com.blazartech.MultiDroolsDemo.comp.data.Product, com.blazartech.MultiDroolsDemo.comp.data.CompensationProgram, com.blazartech.MultiDroolsDemo.comp.data.ThresholdType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function boolean isNull(Object o) { return o == null; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RuleTable Determine Compensation Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONDITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$compensationRecord: CompensationRecord()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compensationRate &lt; $param</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventAllocation.compensableEvent.product in ($param)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventAllocation.program in ($param)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thresholdType in ($param)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$compensationRecord.setCompensationRate($param);  update($compensationRecord);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rate not set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThresholdType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whole life FYC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product.WholeLife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CompensationProgram.FYC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThresholdType.Below</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whole life renewal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CompensationProgram.RenewalCommission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annuity FYC below</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product.VariableAnnuity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annuity FYC above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThresholdType.Above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annuity renewal below</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annuity renewal above</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,7 +139,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -147,7 +162,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -167,7 +182,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -203,172 +218,193 @@
     </fill>
   </fills>
   <borders count="5">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
+      <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -400,7 +436,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -424,7 +460,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -484,260 +520,261 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" customWidth="1"/>
-    <col min="3" max="3" width="53.5" customWidth="1"/>
-    <col min="4" max="4" width="52.33203125" customWidth="1"/>
-    <col min="5" max="5" width="38.5" customWidth="1"/>
-    <col min="6" max="6" width="45.83203125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="53.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="52.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="45.83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" ht="37.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="21.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" ht="21.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" ht="21.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,7 +786,12 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B11:B16"/>
   </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>